--- a/data_hongkong/hongkong_fecal.xlsx
+++ b/data_hongkong/hongkong_fecal.xlsx
@@ -2179,17 +2179,39 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="B12" s="3">
+        <v>972.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>74.0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.0761</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0082</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.0154</v>
+      </c>
+      <c r="I12" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.0154</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.0041</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
